--- a/Excel/4_2 DATA afr/DRUK_Punte_Berekening.xlsx
+++ b/Excel/4_2 DATA afr/DRUK_Punte_Berekening.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sandra\Documents\00000 CAT Gr10\4 EXCEL\4_2 Bereken\DATA afr FINAAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Skool Werk\Excel\4_2 DATA afr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="12210" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,23 +585,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -637,23 +620,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,17 +799,17 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="O533" sqref="O533"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9.875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="5.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9.85546875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
